--- a/USA/state/output/data_summary/Breakdown of deaths eLife.xlsx
+++ b/USA/state/output/data_summary/Breakdown of deaths eLife.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12120" yWindow="-19540" windowWidth="24280" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="7140" yWindow="640" windowWidth="24280" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="All ages" sheetId="1" r:id="rId1"/>
@@ -243,6 +243,10 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,10 +286,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +566,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,11 +576,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
@@ -592,11 +592,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="8">
         <v>43558203</v>
       </c>
@@ -610,10 +610,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="8">
         <v>10481582</v>
       </c>
@@ -627,10 +627,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="8">
         <v>20168049</v>
       </c>
@@ -661,9 +661,8 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="8">
         <v>2791652</v>
@@ -680,7 +679,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="8">
         <v>1138053</v>
@@ -695,10 +694,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="8">
         <v>4034876</v>
       </c>
@@ -746,10 +745,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="8">
         <v>8873696</v>
       </c>
@@ -764,7 +763,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="8">
@@ -781,7 +780,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="8">
@@ -798,7 +797,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="8">
@@ -815,7 +814,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="8">
@@ -832,7 +831,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="8">
@@ -849,7 +848,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="8">
@@ -864,7 +863,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="8">
@@ -879,11 +878,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -916,11 +915,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
@@ -932,233 +931,233 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="21"/>
       <c r="D12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="22"/>
       <c r="D22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
       <c r="D28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
       <c r="D31" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D32" t="s">
@@ -1166,61 +1165,61 @@
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="16"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="16"/>
+      <c r="C34" s="18"/>
       <c r="D34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="16"/>
+      <c r="C35" s="18"/>
       <c r="D35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="16"/>
+      <c r="C36" s="18"/>
       <c r="D36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="16"/>
+      <c r="C37" s="18"/>
       <c r="D37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="16"/>
+      <c r="C38" s="18"/>
       <c r="D38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39" s="16"/>
+      <c r="C39" s="18"/>
       <c r="D39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="16"/>
+      <c r="C40" s="18"/>
       <c r="D40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="16"/>
+      <c r="C41" s="18"/>
       <c r="D41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
@@ -1228,61 +1227,61 @@
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="16"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="16"/>
+      <c r="C44" s="18"/>
       <c r="D44" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="16"/>
+      <c r="C45" s="18"/>
       <c r="D45" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="16"/>
+      <c r="C46" s="18"/>
       <c r="D46" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="16"/>
+      <c r="C47" s="18"/>
       <c r="D47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="16"/>
+      <c r="C48" s="18"/>
       <c r="D48" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="16"/>
+      <c r="C49" s="18"/>
       <c r="D49" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="16"/>
+      <c r="C50" s="18"/>
       <c r="D50" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="16"/>
+      <c r="C51" s="18"/>
       <c r="D51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
@@ -1290,127 +1289,127 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="16"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="16"/>
+      <c r="C54" s="18"/>
       <c r="D54" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="16"/>
+      <c r="C55" s="18"/>
       <c r="D55" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="16"/>
+      <c r="C56" s="18"/>
       <c r="D56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="16"/>
+      <c r="C57" s="18"/>
       <c r="D57" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="16"/>
+      <c r="C58" s="18"/>
       <c r="D58" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="16"/>
+      <c r="C59" s="18"/>
       <c r="D59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="16"/>
+      <c r="C60" s="18"/>
       <c r="D60" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="16"/>
+      <c r="C61" s="18"/>
       <c r="D61" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="17"/>
+      <c r="C62" s="19"/>
       <c r="D62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
       <c r="D64" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
       <c r="D66" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
       <c r="D67" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
       <c r="D68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
       <c r="D69" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
       <c r="D70" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
       <c r="D71" t="s">
         <v>19</v>
       </c>
@@ -1522,10 +1521,10 @@
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="10"/>
+      <c r="C92" s="12"/>
       <c r="D92" t="s">
         <v>21</v>
       </c>
@@ -1873,11 +1872,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" t="s">
         <v>18</v>
       </c>
@@ -1889,31 +1888,31 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="14"/>
       <c r="D3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="15"/>
       <c r="D4" t="s">
         <v>21</v>
       </c>
@@ -1950,10 +1949,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="16"/>
       <c r="D8" t="s">
         <v>21</v>
       </c>
@@ -1980,10 +1979,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="12"/>
       <c r="D11" t="s">
         <v>21</v>
       </c>
@@ -2039,31 +2038,31 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="7" t="s">
         <v>20</v>
       </c>
@@ -2100,10 +2099,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
@@ -2130,10 +2129,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="7" t="s">
         <v>20</v>
       </c>
@@ -2189,31 +2188,31 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="14"/>
       <c r="D33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="15"/>
       <c r="D34" t="s">
         <v>22</v>
       </c>
@@ -2250,10 +2249,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="16"/>
       <c r="D38" t="s">
         <v>22</v>
       </c>
@@ -2280,10 +2279,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="12"/>
       <c r="D41" t="s">
         <v>22</v>
       </c>
@@ -2339,31 +2338,31 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="12"/>
+      <c r="C48" s="14"/>
       <c r="D48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="13"/>
+      <c r="C49" s="15"/>
       <c r="D49" t="s">
         <v>23</v>
       </c>
@@ -2400,10 +2399,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="14"/>
+      <c r="C53" s="16"/>
       <c r="D53" t="s">
         <v>23</v>
       </c>
@@ -2430,10 +2429,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="12"/>
       <c r="D56" t="s">
         <v>23</v>
       </c>
@@ -2489,31 +2488,31 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
       <c r="D62" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="14"/>
       <c r="D63" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="13"/>
+      <c r="C64" s="15"/>
       <c r="D64" t="s">
         <v>24</v>
       </c>
@@ -2550,10 +2549,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="14"/>
+      <c r="C68" s="16"/>
       <c r="D68" t="s">
         <v>24</v>
       </c>
@@ -2580,10 +2579,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="10"/>
+      <c r="C71" s="12"/>
       <c r="D71" t="s">
         <v>24</v>
       </c>
@@ -2639,31 +2638,31 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
       <c r="D77" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="12"/>
+      <c r="C78" s="14"/>
       <c r="D78" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="15"/>
       <c r="D79" t="s">
         <v>25</v>
       </c>
@@ -2700,10 +2699,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="14"/>
+      <c r="C83" s="16"/>
       <c r="D83" t="s">
         <v>25</v>
       </c>
@@ -2730,10 +2729,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="10"/>
+      <c r="C86" s="12"/>
       <c r="D86" t="s">
         <v>25</v>
       </c>
@@ -2789,31 +2788,31 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
       <c r="D92" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="12"/>
+      <c r="C93" s="14"/>
       <c r="D93" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="13"/>
+      <c r="C94" s="15"/>
       <c r="D94" t="s">
         <v>26</v>
       </c>
@@ -2850,10 +2849,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="14"/>
+      <c r="C98" s="16"/>
       <c r="D98" t="s">
         <v>26</v>
       </c>
@@ -2880,10 +2879,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="10"/>
+      <c r="C101" s="12"/>
       <c r="D101" t="s">
         <v>26</v>
       </c>
@@ -2939,31 +2938,31 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
       <c r="D107" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="12"/>
+      <c r="C108" s="14"/>
       <c r="D108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C109" s="13"/>
+      <c r="C109" s="15"/>
       <c r="D109" t="s">
         <v>27</v>
       </c>
@@ -3000,10 +2999,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="14"/>
+      <c r="C113" s="16"/>
       <c r="D113" t="s">
         <v>27</v>
       </c>
@@ -3030,10 +3029,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="10"/>
+      <c r="C116" s="12"/>
       <c r="D116" t="s">
         <v>27</v>
       </c>
@@ -3089,31 +3088,31 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
       <c r="D122" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="12"/>
+      <c r="C123" s="14"/>
       <c r="D123" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C124" s="13"/>
+      <c r="C124" s="15"/>
       <c r="D124" t="s">
         <v>28</v>
       </c>
@@ -3150,10 +3149,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="14"/>
+      <c r="C128" s="16"/>
       <c r="D128" t="s">
         <v>28</v>
       </c>
@@ -3180,10 +3179,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C131" s="10"/>
+      <c r="C131" s="12"/>
       <c r="D131" t="s">
         <v>28</v>
       </c>
@@ -3239,31 +3238,31 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
       <c r="D137" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="12"/>
+      <c r="C138" s="14"/>
       <c r="D138" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="13"/>
+      <c r="C139" s="15"/>
       <c r="D139" t="s">
         <v>19</v>
       </c>
@@ -3300,10 +3299,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="14"/>
+      <c r="C143" s="16"/>
       <c r="D143" t="s">
         <v>19</v>
       </c>
@@ -3330,10 +3329,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C146" s="10"/>
+      <c r="C146" s="12"/>
       <c r="D146" t="s">
         <v>19</v>
       </c>
@@ -3387,15 +3386,36 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
     <mergeCell ref="A122:C122"/>
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="A92:C92"/>
@@ -3408,36 +3428,15 @@
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="B138:C138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3461,25 +3460,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" t="s">
         <v>21</v>
       </c>
@@ -3512,25 +3511,25 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -3555,10 +3554,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -3576,10 +3575,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
@@ -3648,25 +3647,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" t="s">
         <v>21</v>
       </c>
@@ -3699,25 +3698,25 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -3742,10 +3741,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -3763,10 +3762,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
